--- a/biology/Botanique/Licania_heteromorpha/Licania_heteromorpha.xlsx
+++ b/biology/Botanique/Licania_heteromorpha/Licania_heteromorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Licania heteromorpha est une espèce de plantes à fleurs de la famille des Chrysobalanaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre.
 </t>
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,20 +612,22 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (28 décembre 2013)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (28 décembre 2013) :
 Licania heteromorpha Benth. (1840)
 variété Licania heteromorpha var. glabra (Mart. ex Hook.f.) Prance (1972)
 variété Licania heteromorpha var. heteromorpha
 variété Licania heteromorpha var. perplexans Sandwith (1931)
 variété Licania heteromorpha var. revoluta Prance (1983)
 variété Licania heteromorpha var. subcordata Fritsch (1889)
-Selon The Plant List            (28 décembre 2013)[1] :
+Selon The Plant List            (28 décembre 2013) :
 variété Licania heteromorpha var. glabra (Mart. ex Hook.f.) Prance
 variété Licania heteromorpha var. heteromorpha
 variété Licania heteromorpha var. subcordata Fritsch
-Selon Tropicos                                           (28 décembre 2013)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Licania heteromorpha var. divaricata (Benth.) Fritsch
 variété Licania heteromorpha var. glabra (Mart. ex Hook. f.) Prance
 variété Licania heteromorpha var. grandifolia Benoist
